--- a/src/test/resources/org/xlbean/reader/TestBook_ignoreOption.xlsx
+++ b/src/test/resources/org/xlbean/reader/TestBook_ignoreOption.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanikawa\git\xlbean\src\test\resources\org\xlbean\reader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{999E18E2-17DC-4B18-83F1-9D085BECC14F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B05369-6922-4391-B2E2-5516509590C0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="-108" windowWidth="29448" windowHeight="17496" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1380" yWindow="-108" windowWidth="29448" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
   <si>
     <t>options?ignoreNull</t>
   </si>
@@ -154,6 +154,18 @@
   </si>
   <si>
     <t>listValue[1]?ignoreNullBlank=false</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ignoreNull</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ignoreBlankMap</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ignoreBlankList</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -521,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -537,11 +549,12 @@
     <col min="6" max="6" width="22.8984375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.296875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="1.5" customWidth="1"/>
-    <col min="9" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="15.8984375" customWidth="1"/>
     <col min="13" max="21" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -564,15 +577,35 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="J2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -582,32 +615,68 @@
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J6" t="b">
+        <v>1</v>
+      </c>
+      <c r="K6" t="b">
+        <v>1</v>
+      </c>
+      <c r="L6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7" t="b">
+        <v>1</v>
+      </c>
+      <c r="L7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -617,32 +686,68 @@
       <c r="D8" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" t="b">
+        <v>1</v>
+      </c>
+      <c r="L8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J11" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -652,32 +757,68 @@
       <c r="E12" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J12" t="b">
+        <v>1</v>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>18</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J13" t="b">
+        <v>1</v>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>19</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J14" t="b">
+        <v>1</v>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>20</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J15" t="b">
+        <v>1</v>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -690,16 +831,34 @@
       <c r="F16" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="J16" t="b">
+        <v>1</v>
+      </c>
+      <c r="K16" t="b">
+        <v>1</v>
+      </c>
+      <c r="L16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>22</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="J17" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -709,8 +868,17 @@
       <c r="F18" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="J18" t="b">
+        <v>1</v>
+      </c>
+      <c r="K18" t="b">
+        <v>1</v>
+      </c>
+      <c r="L18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -720,8 +888,17 @@
       <c r="F19" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="J19" t="b">
+        <v>1</v>
+      </c>
+      <c r="K19" t="b">
+        <v>1</v>
+      </c>
+      <c r="L19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -732,8 +909,17 @@
       <c r="G20" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="J20" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -741,8 +927,17 @@
       <c r="G21" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="J21" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -755,8 +950,17 @@
       <c r="G22" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="J22" t="b">
+        <v>1</v>
+      </c>
+      <c r="K22" t="b">
+        <v>1</v>
+      </c>
+      <c r="L22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -769,48 +973,57 @@
       <c r="G23" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="J23" t="b">
+        <v>1</v>
+      </c>
+      <c r="K23" t="b">
+        <v>1</v>
+      </c>
+      <c r="L23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B24">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B25">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B26">
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B27">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B28">
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B29">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B30">
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B31">
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B32">
         <v>13</v>
       </c>
@@ -851,7 +1064,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FC94679-74DC-4E82-A9E3-D9EBFB2524B0}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
